--- a/Data/example_tidy.xlsx
+++ b/Data/example_tidy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colin/Travail/Enseignements/URFIST/URFIST2-Rintermediaire/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E5A082-A20D-8E49-9FA2-746FB1B7ECE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B0F730-F0DD-4240-8BB3-F82B5272DA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{FB44FBAD-F985-A546-B2F0-BF25AB7C00DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Student</t>
   </si>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,15 +94,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +141,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,9 +186,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -191,6 +193,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -507,41 +518,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6028D222-A1A7-0244-9C74-FC7088F43635}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,8 +585,20 @@
       <c r="G2" s="1">
         <v>12</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,8 +620,20 @@
       <c r="G3" s="1">
         <v>18</v>
       </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -609,12 +655,60 @@
       <c r="G4" s="1">
         <v>15</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D10" s="6"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D11" s="6"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
